--- a/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,79 +22,139 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>002446</t>
+  </si>
+  <si>
+    <t>008185</t>
+  </si>
+  <si>
+    <t>519997</t>
+  </si>
+  <si>
+    <t>000545</t>
+  </si>
+  <si>
+    <t>005589</t>
+  </si>
+  <si>
+    <t>002291</t>
+  </si>
+  <si>
+    <t>320018</t>
+  </si>
+  <si>
     <t>003582</t>
   </si>
   <si>
+    <t>011172</t>
+  </si>
+  <si>
     <t>005005</t>
   </si>
   <si>
     <t>005006</t>
   </si>
   <si>
-    <t>005589</t>
-  </si>
-  <si>
-    <t>000545</t>
-  </si>
-  <si>
-    <t>320018</t>
-  </si>
-  <si>
-    <t>519997</t>
-  </si>
-  <si>
-    <t>002291</t>
-  </si>
-  <si>
-    <t>002446</t>
-  </si>
-  <si>
-    <t>011172</t>
-  </si>
-  <si>
-    <t>008185</t>
+    <t>广发利鑫灵活配置混合A</t>
+  </si>
+  <si>
+    <t>诺安研究优选混合</t>
+  </si>
+  <si>
+    <t>长信银利精选混合</t>
+  </si>
+  <si>
+    <t>中邮核心竞争力灵活配置混合</t>
+  </si>
+  <si>
+    <t>长信企业精选两年定期开放灵活配置混合</t>
+  </si>
+  <si>
+    <t>诺安安鑫灵活配置混合</t>
+  </si>
+  <si>
+    <t>诺安新动力混合</t>
   </si>
   <si>
     <t>中金量化多策略灵活配置混合</t>
   </si>
   <si>
+    <t>广发利鑫灵活配置混合C</t>
+  </si>
+  <si>
     <t>中金金泽量化精选混合A</t>
   </si>
   <si>
     <t>中金金泽量化精选混合C</t>
   </si>
   <si>
-    <t>长信企业精选两年定期开放灵活配置混合</t>
-  </si>
-  <si>
-    <t>中邮核心竞争力灵活配置混合</t>
-  </si>
-  <si>
-    <t>诺安新动力混合</t>
-  </si>
-  <si>
-    <t>长信银利精选混合</t>
-  </si>
-  <si>
-    <t>诺安安鑫灵活配置混合</t>
-  </si>
-  <si>
-    <t>广发利鑫灵活配置混合A</t>
-  </si>
-  <si>
-    <t>广发利鑫灵活配置混合C</t>
-  </si>
-  <si>
-    <t>诺安研究优选混合</t>
+    <t>17.63</t>
+  </si>
+  <si>
+    <t>3.59</t>
+  </si>
+  <si>
+    <t>5.17</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
+    <t>6.96</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>50.93</t>
+  </si>
+  <si>
+    <t>93.99</t>
+  </si>
+  <si>
+    <t>77.81</t>
+  </si>
+  <si>
+    <t>72.39</t>
+  </si>
+  <si>
+    <t>45.49</t>
+  </si>
+  <si>
+    <t>92.82</t>
+  </si>
+  <si>
+    <t>79.63</t>
   </si>
   <si>
     <t>52.30</t>
@@ -103,25 +163,25 @@
     <t>51.63</t>
   </si>
   <si>
-    <t>45.49</t>
-  </si>
-  <si>
-    <t>72.39</t>
-  </si>
-  <si>
-    <t>79.63</t>
-  </si>
-  <si>
-    <t>77.81</t>
-  </si>
-  <si>
-    <t>92.82</t>
-  </si>
-  <si>
-    <t>50.93</t>
-  </si>
-  <si>
-    <t>93.99</t>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>9.62</t>
+  </si>
+  <si>
+    <t>5.67</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
+    <t>4.40</t>
   </si>
   <si>
     <t>2.51</t>
@@ -130,25 +190,37 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.72</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>5.67</t>
-  </si>
-  <si>
-    <t>7.18</t>
-  </si>
-  <si>
-    <t>4.07</t>
-  </si>
-  <si>
-    <t>9.62</t>
+    <t>0.7175</t>
+  </si>
+  <si>
+    <t>0.3454</t>
+  </si>
+  <si>
+    <t>0.2931</t>
+  </si>
+  <si>
+    <t>0.1934</t>
+  </si>
+  <si>
+    <t>0.1893</t>
+  </si>
+  <si>
+    <t>0.1314</t>
+  </si>
+  <si>
+    <t>0.0444</t>
+  </si>
+  <si>
+    <t>0.0309</t>
+  </si>
+  <si>
+    <t>0.0216</t>
+  </si>
+  <si>
+    <t>0.0038</t>
+  </si>
+  <si>
+    <t>0.0004</t>
   </si>
 </sst>
 </file>
@@ -506,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,225 +600,297 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2056,4 +2057,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,17 +2077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2096,14 +2117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.23</v>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2112,14 +2155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.98</v>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5239</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2128,13 +2193,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2312,7 +2313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2323,17 +2324,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2343,14 +2364,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.62</v>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2359,14 +2402,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.23</v>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2375,14 +2440,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.98</v>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2391,13 +2478,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2635,7 +2636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2646,17 +2647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2666,14 +2687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.35</v>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2682,14 +2725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.62</v>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2698,14 +2763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.23</v>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2714,14 +2801,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.98</v>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2730,13 +2839,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,471 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002446</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>50.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7175</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008185</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安研究优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3454</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519997</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信银利精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>77.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2931</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D4" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000545</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中邮核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>72.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1934</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005589</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>45.49</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1893</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002291</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安安鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1314</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>320018</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安新动力混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003582</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>52.30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>50.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005005</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>51.63</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005006</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>51.63</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.97</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -930,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -981,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>001225</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>中邮趋势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.30</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.83</t>
+          <t>83.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3164</t>
+          <t>0.9285</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1019,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009843</t>
+          <t>000545</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中金泰顺12个月定期开放混合</t>
+          <t>中邮核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.66</t>
+          <t>83.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4128</t>
+          <t>0.2595</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1057,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320001</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安平衡混合</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.94</t>
+          <t>78.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3861</t>
+          <t>0.2538</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1095,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000545</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮核心竞争力灵活配置混合</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>67.74</t>
+          <t>79.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2724</t>
+          <t>0.0793</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1133,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>011746</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>19.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>64.55</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1352</t>
+          <t>0.0738</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1171,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006277</t>
+          <t>009489</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中金瑞和灵活配置混合A</t>
+          <t>中邮价值精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>79.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1280</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1209,377 +867,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005489</t>
+          <t>011747</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中金衡优灵活配置混合A</t>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29.46</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0888</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>64.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0836</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009489</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>64.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003582</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>61.18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0425</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004475</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006278</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中金瑞和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>60.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005490</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中金衡优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>29.46</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003175</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005005</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>52.96</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005006</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>52.96</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1594,7 +910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1615,7 +931,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1645,36 +961,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>001225</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>中邮趋势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>68.79</t>
+          <t>70.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9541</t>
+          <t>0.7459</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1683,36 +999,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260116</t>
+          <t>000545</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城核心竞争力混合A</t>
+          <t>中邮核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.46</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>73.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6006</t>
+          <t>0.2946</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1721,36 +1037,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000545</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮核心竞争力灵活配置混合</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>78.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2461</t>
+          <t>0.1193</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1769,22 +1085,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1981</t>
+          <t>0.0765</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1797,36 +1113,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>010564</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>民生加银瑞利混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.42</t>
+          <t>33.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0955</t>
+          <t>0.0552</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1835,36 +1151,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005489</t>
+          <t>009489</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中金衡优灵活配置混合A</t>
+          <t>中邮价值精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30.71</t>
+          <t>78.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.0353</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1873,188 +1189,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009489</t>
+          <t>162212</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中邮价值精选混合C</t>
+          <t>泰达宏利红利先锋混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.42</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>162212</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰达宏利红利先锋混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>960008</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城核心竞争力混合H</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>68.79</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005490</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中金衡优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>30.71</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +1478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2335,7 +1499,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2365,36 +1529,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001225</t>
+          <t>002446</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮趋势精选灵活配置混合</t>
+          <t>广发利鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.17</t>
+          <t>68.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7459</t>
+          <t>0.9541</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2403,36 +1567,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000545</t>
+          <t>260116</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮核心竞争力灵活配置混合</t>
+          <t>景顺长城核心竞争力混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>17.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.83</t>
+          <t>87.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2946</t>
+          <t>0.6006</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2441,36 +1605,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>000545</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>中邮核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.12</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1193</t>
+          <t>0.2461</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2489,22 +1653,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0765</t>
+          <t>0.1981</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2517,36 +1681,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010564</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>民生加银瑞利混合</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33.06</t>
+          <t>78.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0955</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2555,36 +1719,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009489</t>
+          <t>005489</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮价值精选混合C</t>
+          <t>中金衡优灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.12</t>
+          <t>30.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0353</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2593,36 +1757,188 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>162212</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>泰达宏利红利先锋混合</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0.68</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2636,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2657,7 +1973,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2687,36 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001225</t>
+          <t>002446</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮趋势精选灵活配置混合</t>
+          <t>广发利鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>23.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.52</t>
+          <t>64.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9285</t>
+          <t>1.3164</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2725,36 +2041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000545</t>
+          <t>009843</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮核心竞争力灵活配置混合</t>
+          <t>中金泰顺12个月定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.67</t>
+          <t>71.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2595</t>
+          <t>0.4128</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2763,36 +2079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>320001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>诺安平衡混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.91</t>
+          <t>72.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2538</t>
+          <t>0.3861</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2801,36 +2117,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>000545</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>中邮核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.35</t>
+          <t>67.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0793</t>
+          <t>0.2724</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2839,36 +2155,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011746</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.41</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>64.55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0738</t>
+          <t>0.1352</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2877,36 +2193,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009489</t>
+          <t>006277</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮价值精选混合C</t>
+          <t>中金瑞和灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.35</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0279</t>
+          <t>0.1280</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2915,35 +2231,377 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011747</t>
+          <t>005489</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+          <t>中金衡优灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>29.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0888</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2958,128 +2616,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>50.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7175</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>52.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.97</v>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>1.63</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.62</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.23</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>2.98</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.97</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.52</t>
+          <t>89.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9285</t>
+          <t>0.9016</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000545</t>
+          <t>012526</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮核心竞争力灵活配置混合</t>
+          <t>广发盛锦混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>25.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.67</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2595</t>
+          <t>0.8360</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -715,32 +732,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>000545</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>中邮核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.91</t>
+          <t>74.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2538</t>
+          <t>0.2543</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.35</t>
+          <t>80.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0793</t>
+          <t>0.2052</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -791,22 +808,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011746</t>
+          <t>011064</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+          <t>南方誉享一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.41</t>
+          <t>19.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>23.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -816,11 +833,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0738</t>
+          <t>0.0724</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009489</t>
+          <t>007126</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮价值精选混合C</t>
+          <t>博道远航混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.35</t>
+          <t>88.04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0279</t>
+          <t>0.0624</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +884,416 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011747</t>
+          <t>007127</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+          <t>博道远航混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25.11</t>
+          <t>88.04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012527</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发盛锦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001183</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011065</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>0.38</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002220</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方瑞利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001504</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>0.0066</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H16" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -971,26 +1368,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.17</t>
+          <t>83.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7459</t>
+          <t>0.9285</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1009,22 +1406,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.83</t>
+          <t>83.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2946</t>
+          <t>0.2595</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1037,36 +1434,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.12</t>
+          <t>78.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1193</t>
+          <t>0.2538</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1075,36 +1472,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162203</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利稳定混合</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>79.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0765</t>
+          <t>0.0793</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1113,36 +1510,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010564</t>
+          <t>011746</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>民生加银瑞利混合</t>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>19.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33.06</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0738</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1161,22 +1558,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.12</t>
+          <t>79.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0353</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1189,32 +1586,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>162212</t>
+          <t>011747</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利红利先锋混合</t>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1227,6 +1624,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1472,7 +2191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1946,7 +2665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2610,7 +3329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/603565-中谷物流.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.58</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>1.63</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.62</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.23</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>2.98</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.97</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1294,328 +1671,6 @@
       </c>
       <c r="H18" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001225</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮趋势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9285</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000545</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2595</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001479</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮风格轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2538</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009488</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0793</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011746</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方誉浦一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>19.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0738</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009489</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011747</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方誉浦一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>25.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1690,26 +1745,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.17</t>
+          <t>83.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7459</t>
+          <t>0.9285</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1728,22 +1783,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.83</t>
+          <t>83.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2946</t>
+          <t>0.2595</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1756,36 +1811,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.12</t>
+          <t>78.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1193</t>
+          <t>0.2538</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1794,36 +1849,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162203</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利稳定混合</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>79.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0765</t>
+          <t>0.0793</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1832,36 +1887,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010564</t>
+          <t>011746</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>民生加银瑞利混合</t>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>19.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33.06</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0738</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1880,22 +1935,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.12</t>
+          <t>79.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0353</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1908,32 +1963,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>162212</t>
+          <t>011747</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利红利先锋混合</t>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1946,6 +2001,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2191,7 +2568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2665,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3329,7 +3706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
